--- a/Models/Coach Availabilty Model.xlsx
+++ b/Models/Coach Availabilty Model.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yellowwoods-my.sharepoint.com/personal/lazola_smartstart_org_za/Documents/Documents/SmartStart/Ops Department/Mapaseka's Request'/Planning Tool - Coaches/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yellowwoods-my.sharepoint.com/personal/lazola_smartstart_org_za/Documents/Documents/SmartStart/Ops Department/Mapaseka's Request'/Planning-Tool/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B67893E-1963-4DF6-82D8-A93375FD1D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -6096,7 +6096,7 @@
       </c>
       <c r="N2" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45111</v>
+        <v>45210</v>
       </c>
       <c r="O2" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A8:B58,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B8:B58)</f>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="P2" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45153</v>
+        <v>45252</v>
       </c>
       <c r="Q2" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6154,7 +6154,7 @@
       </c>
       <c r="N3" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45111</v>
+        <v>45210</v>
       </c>
       <c r="O3" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A11:B61,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B11:B61)</f>
@@ -6162,7 +6162,7 @@
       </c>
       <c r="P3" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45153</v>
+        <v>45252</v>
       </c>
       <c r="Q3" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="N4" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45111</v>
+        <v>45210</v>
       </c>
       <c r="O4" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A13:B63,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B13:B63)</f>
@@ -6220,7 +6220,7 @@
       </c>
       <c r="P4" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45153</v>
+        <v>45252</v>
       </c>
       <c r="Q4" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6270,7 +6270,7 @@
       </c>
       <c r="N5" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45111</v>
+        <v>45210</v>
       </c>
       <c r="O5" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A24:B74,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B24:B74)</f>
@@ -6278,7 +6278,7 @@
       </c>
       <c r="P5" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45153</v>
+        <v>45252</v>
       </c>
       <c r="Q5" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="N6" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45111</v>
+        <v>45210</v>
       </c>
       <c r="O6" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A72:B122,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B72:B122)</f>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="P6" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45153</v>
+        <v>45252</v>
       </c>
       <c r="Q6" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="N7" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45111</v>
+        <v>45210</v>
       </c>
       <c r="O7" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A27:B77,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B27:B77)</f>
@@ -6394,7 +6394,7 @@
       </c>
       <c r="P7" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45153</v>
+        <v>45252</v>
       </c>
       <c r="Q7" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6444,7 +6444,7 @@
       </c>
       <c r="N8" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45111</v>
+        <v>45210</v>
       </c>
       <c r="O8" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A29:B79,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B29:B79)</f>
@@ -6452,7 +6452,7 @@
       </c>
       <c r="P8" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45153</v>
+        <v>45252</v>
       </c>
       <c r="Q8" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6502,7 +6502,7 @@
       </c>
       <c r="N9" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45112</v>
+        <v>45211</v>
       </c>
       <c r="O9" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A12:B62,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B12:B62)</f>
@@ -6510,7 +6510,7 @@
       </c>
       <c r="P9" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45154</v>
+        <v>45253</v>
       </c>
       <c r="Q9" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="N10" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45112</v>
+        <v>45211</v>
       </c>
       <c r="O10" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A34:B84,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B34:B84)</f>
@@ -6568,7 +6568,7 @@
       </c>
       <c r="P10" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45154</v>
+        <v>45253</v>
       </c>
       <c r="Q10" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6618,7 +6618,7 @@
       </c>
       <c r="N11" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45113</v>
+        <v>45212</v>
       </c>
       <c r="O11" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A9:B59,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B9:B59)</f>
@@ -6626,7 +6626,7 @@
       </c>
       <c r="P11" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45152</v>
+        <v>45251</v>
       </c>
       <c r="Q11" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="N12" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45113</v>
+        <v>45212</v>
       </c>
       <c r="O12" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A38:B88,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B38:B88)</f>
@@ -6684,7 +6684,7 @@
       </c>
       <c r="P12" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45155</v>
+        <v>45254</v>
       </c>
       <c r="Q12" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6734,7 +6734,7 @@
       </c>
       <c r="N13" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45113</v>
+        <v>45212</v>
       </c>
       <c r="O13" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A49:B99,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B49:B99)</f>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="P13" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45155</v>
+        <v>45254</v>
       </c>
       <c r="Q13" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6792,7 +6792,7 @@
       </c>
       <c r="N14" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45113</v>
+        <v>45212</v>
       </c>
       <c r="O14" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A3:B53,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B3:B53)</f>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="P14" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45161</v>
+        <v>45260</v>
       </c>
       <c r="Q14" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6850,7 +6850,7 @@
       </c>
       <c r="N15" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45113</v>
+        <v>45212</v>
       </c>
       <c r="O15" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A4:B54,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B4:B54)</f>
@@ -6858,7 +6858,7 @@
       </c>
       <c r="P15" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45155</v>
+        <v>45254</v>
       </c>
       <c r="Q15" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="N16" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45114</v>
+        <v>45215</v>
       </c>
       <c r="O16" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A30:B80,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B30:B80)</f>
@@ -6916,7 +6916,7 @@
       </c>
       <c r="P16" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45156</v>
+        <v>45257</v>
       </c>
       <c r="Q16" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -6966,7 +6966,7 @@
       </c>
       <c r="N17" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45114</v>
+        <v>45215</v>
       </c>
       <c r="O17" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A33:B83,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B33:B83)</f>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="P17" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45146</v>
+        <v>45245</v>
       </c>
       <c r="Q17" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7024,7 +7024,7 @@
       </c>
       <c r="N18" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45117</v>
+        <v>45216</v>
       </c>
       <c r="O18" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A26:B76,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B26:B76)</f>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="P18" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45159</v>
+        <v>45258</v>
       </c>
       <c r="Q18" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7082,7 +7082,7 @@
       </c>
       <c r="N19" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45125</v>
+        <v>45224</v>
       </c>
       <c r="O19" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A22:B72,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B22:B72)</f>
@@ -7090,7 +7090,7 @@
       </c>
       <c r="P19" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45167</v>
+        <v>45266</v>
       </c>
       <c r="Q19" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7140,7 +7140,7 @@
       </c>
       <c r="N20" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45125</v>
+        <v>45224</v>
       </c>
       <c r="O20" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A15:B65,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B15:B65)</f>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="P20" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45167</v>
+        <v>45266</v>
       </c>
       <c r="Q20" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="N21" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45118</v>
+        <v>45217</v>
       </c>
       <c r="O21" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A37:B87,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B37:B87)</f>
@@ -7206,7 +7206,7 @@
       </c>
       <c r="P21" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45160</v>
+        <v>45259</v>
       </c>
       <c r="Q21" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7256,7 +7256,7 @@
       </c>
       <c r="N22" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45126</v>
+        <v>45225</v>
       </c>
       <c r="O22" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A7:B57,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B7:B57)</f>
@@ -7264,7 +7264,7 @@
       </c>
       <c r="P22" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45161</v>
+        <v>45260</v>
       </c>
       <c r="Q22" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="N23" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45126</v>
+        <v>45225</v>
       </c>
       <c r="O23" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A31:B81,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B31:B81)</f>
@@ -7322,7 +7322,7 @@
       </c>
       <c r="P23" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45153</v>
+        <v>45252</v>
       </c>
       <c r="Q23" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7372,7 +7372,7 @@
       </c>
       <c r="N24" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45127</v>
+        <v>45226</v>
       </c>
       <c r="O24" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A44:B94,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B44:B94)</f>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="P24" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45169</v>
+        <v>45268</v>
       </c>
       <c r="Q24" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7430,7 +7430,7 @@
       </c>
       <c r="N25" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45120</v>
+        <v>45219</v>
       </c>
       <c r="O25" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A43:B93,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B43:B93)</f>
@@ -7438,7 +7438,7 @@
       </c>
       <c r="P25" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45162</v>
+        <v>45261</v>
       </c>
       <c r="Q25" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7488,7 +7488,7 @@
       </c>
       <c r="N26" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45120</v>
+        <v>45219</v>
       </c>
       <c r="O26" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A45:B95,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B45:B95)</f>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="P26" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45162</v>
+        <v>45261</v>
       </c>
       <c r="Q26" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7546,7 +7546,7 @@
       </c>
       <c r="N27" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45132</v>
+        <v>45231</v>
       </c>
       <c r="O27" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A5:B55,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B5:B55)</f>
@@ -7554,7 +7554,7 @@
       </c>
       <c r="P27" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45176</v>
+        <v>45275</v>
       </c>
       <c r="Q27" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="N28" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45125</v>
+        <v>45224</v>
       </c>
       <c r="O28" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A56:B106,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B56:B106)</f>
@@ -7612,7 +7612,7 @@
       </c>
       <c r="P28" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45167</v>
+        <v>45266</v>
       </c>
       <c r="Q28" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7662,7 +7662,7 @@
       </c>
       <c r="N29" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45132</v>
+        <v>45231</v>
       </c>
       <c r="O29" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A14:B64,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B14:B64)</f>
@@ -7670,7 +7670,7 @@
       </c>
       <c r="P29" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45160</v>
+        <v>45259</v>
       </c>
       <c r="Q29" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7720,7 +7720,7 @@
       </c>
       <c r="N30" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45132</v>
+        <v>45231</v>
       </c>
       <c r="O30" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A19:B69,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B19:B69)</f>
@@ -7728,7 +7728,7 @@
       </c>
       <c r="P30" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45163</v>
+        <v>45264</v>
       </c>
       <c r="Q30" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7778,7 +7778,7 @@
       </c>
       <c r="N31" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45132</v>
+        <v>45231</v>
       </c>
       <c r="O31" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A16:B66,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B16:B66)</f>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="P31" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45145</v>
+        <v>45244</v>
       </c>
       <c r="Q31" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="N32" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45138</v>
+        <v>45237</v>
       </c>
       <c r="O32" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A58:B108,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B58:B108)</f>
@@ -7844,7 +7844,7 @@
       </c>
       <c r="P32" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45180</v>
+        <v>45279</v>
       </c>
       <c r="Q32" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="N33" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45138</v>
+        <v>45237</v>
       </c>
       <c r="O33" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A40:B90,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B40:B90)</f>
@@ -7902,7 +7902,7 @@
       </c>
       <c r="P33" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45180</v>
+        <v>45279</v>
       </c>
       <c r="Q33" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -7952,7 +7952,7 @@
       </c>
       <c r="N34" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45138</v>
+        <v>45237</v>
       </c>
       <c r="O34" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A46:B96,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B46:B96)</f>
@@ -7960,7 +7960,7 @@
       </c>
       <c r="P34" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45180</v>
+        <v>45279</v>
       </c>
       <c r="Q34" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8010,7 +8010,7 @@
       </c>
       <c r="N35" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45132</v>
+        <v>45231</v>
       </c>
       <c r="O35" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A57:B107,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B57:B107)</f>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="P35" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45174</v>
+        <v>45273</v>
       </c>
       <c r="Q35" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="N36" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45139</v>
+        <v>45238</v>
       </c>
       <c r="O36" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A54:B104,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B54:B104)</f>
@@ -8076,7 +8076,7 @@
       </c>
       <c r="P36" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45181</v>
+        <v>45280</v>
       </c>
       <c r="Q36" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="N37" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45134</v>
+        <v>45233</v>
       </c>
       <c r="O37" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A32:B82,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B32:B82)</f>
@@ -8134,7 +8134,7 @@
       </c>
       <c r="P37" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45156</v>
+        <v>45257</v>
       </c>
       <c r="Q37" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8184,7 +8184,7 @@
       </c>
       <c r="N38" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45141</v>
+        <v>45240</v>
       </c>
       <c r="O38" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A35:B85,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B35:B85)</f>
@@ -8192,7 +8192,7 @@
       </c>
       <c r="P38" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45146</v>
+        <v>45245</v>
       </c>
       <c r="Q38" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8242,7 +8242,7 @@
       </c>
       <c r="N39" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45135</v>
+        <v>45236</v>
       </c>
       <c r="O39" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A42:B92,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B42:B92)</f>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="P39" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45177</v>
+        <v>45278</v>
       </c>
       <c r="Q39" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8300,7 +8300,7 @@
       </c>
       <c r="N40" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45138</v>
+        <v>45237</v>
       </c>
       <c r="O40" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A47:B97,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B47:B97)</f>
@@ -8308,7 +8308,7 @@
       </c>
       <c r="P40" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45180</v>
+        <v>45279</v>
       </c>
       <c r="Q40" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8358,7 +8358,7 @@
       </c>
       <c r="N41" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45138</v>
+        <v>45237</v>
       </c>
       <c r="O41" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A61:B111,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B61:B111)</f>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="P41" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45180</v>
+        <v>45279</v>
       </c>
       <c r="Q41" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8416,7 +8416,7 @@
       </c>
       <c r="N42" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45146</v>
+        <v>45245</v>
       </c>
       <c r="O42" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A60:B110,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B60:B110)</f>
@@ -8424,7 +8424,7 @@
       </c>
       <c r="P42" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45188</v>
+        <v>45287</v>
       </c>
       <c r="Q42" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8474,7 +8474,7 @@
       </c>
       <c r="N43" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45139</v>
+        <v>45238</v>
       </c>
       <c r="O43" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A25:B75,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B25:B75)</f>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="P43" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45181</v>
+        <v>45280</v>
       </c>
       <c r="Q43" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="N44" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45140</v>
+        <v>45239</v>
       </c>
       <c r="O44" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A66:B116,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B66:B116)</f>
@@ -8540,7 +8540,7 @@
       </c>
       <c r="P44" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45182</v>
+        <v>45281</v>
       </c>
       <c r="Q44" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8590,7 +8590,7 @@
       </c>
       <c r="N45" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45133</v>
+        <v>45232</v>
       </c>
       <c r="O45" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A39:B89,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B39:B89)</f>
@@ -8598,7 +8598,7 @@
       </c>
       <c r="P45" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45154</v>
+        <v>45253</v>
       </c>
       <c r="Q45" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="N46" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45142</v>
+        <v>45243</v>
       </c>
       <c r="O46" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A55:B105,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B55:B105)</f>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="P46" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45184</v>
+        <v>45285</v>
       </c>
       <c r="Q46" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8706,7 +8706,7 @@
       </c>
       <c r="N47" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45149</v>
+        <v>45250</v>
       </c>
       <c r="O47" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A63:B113,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B63:B113)</f>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="P47" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45191</v>
+        <v>45292</v>
       </c>
       <c r="Q47" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8764,7 +8764,7 @@
       </c>
       <c r="N48" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45153</v>
+        <v>45252</v>
       </c>
       <c r="O48" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A28:B78,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B28:B78)</f>
@@ -8772,7 +8772,7 @@
       </c>
       <c r="P48" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45183</v>
+        <v>45282</v>
       </c>
       <c r="Q48" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="N49" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45154</v>
+        <v>45253</v>
       </c>
       <c r="O49" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A36:B86,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B36:B86)</f>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="P49" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45196</v>
+        <v>45295</v>
       </c>
       <c r="Q49" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8880,7 +8880,7 @@
       </c>
       <c r="N50" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45149</v>
+        <v>45250</v>
       </c>
       <c r="O50" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A48:B98,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B48:B98)</f>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="P50" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45191</v>
+        <v>45292</v>
       </c>
       <c r="Q50" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="N51" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45154</v>
+        <v>45253</v>
       </c>
       <c r="O51" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A59:B109,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B59:B109)</f>
@@ -8946,7 +8946,7 @@
       </c>
       <c r="P51" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45196</v>
+        <v>45295</v>
       </c>
       <c r="Q51" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="N52" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45147</v>
+        <v>45246</v>
       </c>
       <c r="O52" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A52:B102,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B52:B102)</f>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="P52" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45189</v>
+        <v>45288</v>
       </c>
       <c r="Q52" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9054,7 +9054,7 @@
       </c>
       <c r="N53" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45155</v>
+        <v>45254</v>
       </c>
       <c r="O53" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A69:B119,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B69:B119)</f>
@@ -9062,7 +9062,7 @@
       </c>
       <c r="P53" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45197</v>
+        <v>45296</v>
       </c>
       <c r="Q53" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9112,7 +9112,7 @@
       </c>
       <c r="N54" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45166</v>
+        <v>45265</v>
       </c>
       <c r="O54" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A21:B71,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B21:B71)</f>
@@ -9120,7 +9120,7 @@
       </c>
       <c r="P54" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45181</v>
+        <v>45280</v>
       </c>
       <c r="Q54" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9170,7 +9170,7 @@
       </c>
       <c r="N55" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45155</v>
+        <v>45254</v>
       </c>
       <c r="O55" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A41:B91,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B41:B91)</f>
@@ -9178,7 +9178,7 @@
       </c>
       <c r="P55" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45197</v>
+        <v>45296</v>
       </c>
       <c r="Q55" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9228,7 +9228,7 @@
       </c>
       <c r="N56" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45170</v>
+        <v>45271</v>
       </c>
       <c r="O56" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A68:B118,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B68:B118)</f>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="P56" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45212</v>
+        <v>45313</v>
       </c>
       <c r="Q56" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="N57" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45163</v>
+        <v>45264</v>
       </c>
       <c r="O57" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A51:B101,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B51:B101)</f>
@@ -9294,7 +9294,7 @@
       </c>
       <c r="P57" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45205</v>
+        <v>45306</v>
       </c>
       <c r="Q57" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="N58" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45167</v>
+        <v>45266</v>
       </c>
       <c r="O58" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A65:B115,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B65:B115)</f>
@@ -9352,7 +9352,7 @@
       </c>
       <c r="P58" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45209</v>
+        <v>45308</v>
       </c>
       <c r="Q58" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9402,7 +9402,7 @@
       </c>
       <c r="N59" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45176</v>
+        <v>45275</v>
       </c>
       <c r="O59" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A50:B100,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B50:B100)</f>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="P59" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45218</v>
+        <v>45317</v>
       </c>
       <c r="Q59" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9460,7 +9460,7 @@
       </c>
       <c r="N60" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45170</v>
+        <v>45271</v>
       </c>
       <c r="O60" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A64:B114,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B64:B114)</f>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="P60" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45212</v>
+        <v>45313</v>
       </c>
       <c r="Q60" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9518,7 +9518,7 @@
       </c>
       <c r="N61" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45170</v>
+        <v>45271</v>
       </c>
       <c r="O61" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A67:B117,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B67:B117)</f>
@@ -9526,7 +9526,7 @@
       </c>
       <c r="P61" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45212</v>
+        <v>45313</v>
       </c>
       <c r="Q61" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9576,7 +9576,7 @@
       </c>
       <c r="N62" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45181</v>
+        <v>45280</v>
       </c>
       <c r="O62" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A62:B112,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B62:B112)</f>
@@ -9584,7 +9584,7 @@
       </c>
       <c r="P62" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45223</v>
+        <v>45322</v>
       </c>
       <c r="Q62" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9634,7 +9634,7 @@
       </c>
       <c r="N63" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45188</v>
+        <v>45287</v>
       </c>
       <c r="O63" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A53:B103,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B53:B103)</f>
@@ -9642,7 +9642,7 @@
       </c>
       <c r="P63" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45230</v>
+        <v>45329</v>
       </c>
       <c r="Q63" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9692,7 +9692,7 @@
       </c>
       <c r="N64" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45195</v>
+        <v>45294</v>
       </c>
       <c r="O64" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A70:B120,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B70:B120)</f>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="P64" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45237</v>
+        <v>45336</v>
       </c>
       <c r="Q64" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9750,7 +9750,7 @@
       </c>
       <c r="N65" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45189</v>
+        <v>45288</v>
       </c>
       <c r="O65" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A10:B60,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B10:B60)</f>
@@ -9758,7 +9758,7 @@
       </c>
       <c r="P65" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45225</v>
+        <v>45324</v>
       </c>
       <c r="Q65" s="9" t="e">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="N66" s="9">
         <f ca="1">WORKDAY(TODAY(),Table4[[#This Row],[Day SmartSpace]]+Table4[[#This Row],[Days PQA]]+Table4[[#This Row],[Child Progress Sessions]]+Table4[[#This Row],[Business Skill]]+10+IF(Table4[[#This Row],[Trainings ]]&gt;0,10,0))</f>
-        <v>45233</v>
+        <v>45334</v>
       </c>
       <c r="O66" s="7">
         <f ca="1">SUMIF('Avg Conversion Days'!A71:B121,Table4[[#This Row],[Full Name]],'Avg Conversion Days'!B71:B121)</f>
@@ -9816,7 +9816,7 @@
       </c>
       <c r="P66" s="9">
         <f ca="1">IF(Table4[[#This Row],[Average conversion]]=0,WORKDAY(Table4[[#This Row],[Date next Startup]],30),WORKDAY(Table4[[#This Row],[Date next Startup]],Table4[[#This Row],[Average conversion]]))</f>
-        <v>45275</v>
+        <v>45376</v>
       </c>
       <c r="Q66" s="9">
         <f>VLOOKUP(Table4[[#This Row],[Full Name]],Table17[[#All],[Coach]:[August Conversion]],3,FALSE)</f>
